--- a/excel assignment kunal.xlsx
+++ b/excel assignment kunal.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6580A6BF-62C7-4C8F-9D97-3A76B3833AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB172692-9B2A-428E-AF44-0DEA076D5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5B22AAC-2E4F-47F1-B75A-40D1B980BE17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5B22AAC-2E4F-47F1-B75A-40D1B980BE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Student</t>
   </si>
@@ -196,6 +198,114 @@
   </si>
   <si>
     <t xml:space="preserve">mode </t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Kavita</t>
+  </si>
+  <si>
+    <t>Sales Report Questions</t>
+  </si>
+  <si>
+    <t>1. Nested IF: Display 'Achieved' if Sales &gt;= Target, else 'Not Achieved'.</t>
+  </si>
+  <si>
+    <t>2. COUNTIF: Count salespersons in 'North' region.</t>
+  </si>
+  <si>
+    <t>3. COUNTIFS: Count salespersons who sold Laptop in East region.</t>
+  </si>
+  <si>
+    <t>4. SUMIF: Total sales of Mobile category.</t>
+  </si>
+  <si>
+    <t>5. SUMIFS: Total sales in South region for Tablet.</t>
+  </si>
+  <si>
+    <t>6. VLOOKUP: Retrieve Target for 'Suresh'.</t>
+  </si>
+  <si>
+    <t>7. Mean, Median, Mode of Sales Amount.</t>
+  </si>
+  <si>
+    <t>TARGET GOALS</t>
+  </si>
+  <si>
+    <t>2.COUNT IF</t>
+  </si>
+  <si>
+    <t>3.COUNTIFS</t>
+  </si>
+  <si>
+    <t>4.SUMIF</t>
+  </si>
+  <si>
+    <t>5.SUMIFS</t>
+  </si>
+  <si>
+    <t>6.VLOOKUP</t>
+  </si>
+  <si>
+    <t>7.MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MODE</t>
   </si>
 </sst>
 </file>
@@ -257,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +395,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,6 +464,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +487,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C996B30-6B76-4DF5-8C39-4E17AF3035AC}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1265,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,4 +1343,324 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651DCD9-346F-4440-A592-687A79012820}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+      <c r="E2">
+        <v>40000</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>IF(D2&gt;=E2,"ACHIEVED","NOT ACHIEVED")</f>
+        <v>ACHIEVED</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>38000</v>
+      </c>
+      <c r="E3">
+        <v>35000</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f t="shared" ref="F3:F8" si="0">IF(D3&gt;=E3,"ACHIEVED","NOT ACHIEVED")</f>
+        <v>ACHIEVED</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>25000</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT ACHIEVED</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>60000</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ACHIEVED</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>42000</v>
+      </c>
+      <c r="E6">
+        <v>40000</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ACHIEVED</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>55000</v>
+      </c>
+      <c r="E7">
+        <v>45000</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ACHIEVED</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>28000</v>
+      </c>
+      <c r="E8">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT ACHIEVED</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="13">
+        <f>COUNTIF(B2:B8,"NORTH")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="13">
+        <f>COUNTIFS(B2:B8,"EAST",C2:C8,"LAPTOP")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="13">
+        <f>SUMIF(C2:C8,"MOBILE",D2:D8)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="13">
+        <f>SUMIFS(D2:D8,B2:B8,"SOUTH",C2:C8,"TABLET")</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="14">
+        <f>VLOOKUP("SURESH",A2:E8,5,FALSE)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="15">
+        <f>AVERAGE(D2:D8)</f>
+        <v>41857.142857142855</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="15">
+        <f>MEDIAN(D2:D8)</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="15" t="e">
+        <f>_xlfn.MODE.SNGL(D2:D8)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A6C4D8-222E-4592-9B7E-71D4EB4AC100}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>